--- a/rozwiazania/Szymon_Grzebyta/Task2.xlsx
+++ b/rozwiazania/Szymon_Grzebyta/Task2.xlsx
@@ -469,7 +469,7 @@
         <v>31017</v>
       </c>
       <c r="D2" t="n">
-        <v>92740.83000001567</v>
+        <v>92740.83</v>
       </c>
     </row>
     <row r="3">
@@ -485,7 +485,7 @@
         <v>27635</v>
       </c>
       <c r="D3" t="n">
-        <v>106118.3999999548</v>
+        <v>106118.4</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         <v>20557</v>
       </c>
       <c r="D4" t="n">
-        <v>246478.4299999509</v>
+        <v>246478.43</v>
       </c>
     </row>
     <row r="5">
@@ -517,7 +517,7 @@
         <v>23975</v>
       </c>
       <c r="D5" t="n">
-        <v>286501.2500001048</v>
+        <v>286501.25</v>
       </c>
     </row>
     <row r="6">
@@ -533,7 +533,7 @@
         <v>23217</v>
       </c>
       <c r="D6" t="n">
-        <v>347094.1500001345</v>
+        <v>347094.15</v>
       </c>
     </row>
     <row r="7">
@@ -581,7 +581,7 @@
         <v>4129</v>
       </c>
       <c r="D9" t="n">
-        <v>454148.7099999756</v>
+        <v>454148.71</v>
       </c>
     </row>
     <row r="10">
@@ -613,7 +613,7 @@
         <v>7550</v>
       </c>
       <c r="D11" t="n">
-        <v>1132424.49999994</v>
+        <v>1132424.5</v>
       </c>
     </row>
     <row r="12">
@@ -629,7 +629,7 @@
         <v>13457</v>
       </c>
       <c r="D12" t="n">
-        <v>1345565.42999989</v>
+        <v>1345565.43</v>
       </c>
     </row>
     <row r="13">
@@ -677,7 +677,7 @@
         <v>6199</v>
       </c>
       <c r="D15" t="n">
-        <v>2355558.010000105</v>
+        <v>2355558.01</v>
       </c>
     </row>
     <row r="16">
@@ -693,7 +693,7 @@
         <v>6244</v>
       </c>
       <c r="D16" t="n">
-        <v>2435097.560000147</v>
+        <v>2435097.56</v>
       </c>
     </row>
     <row r="17">
@@ -725,7 +725,7 @@
         <v>4130</v>
       </c>
       <c r="D18" t="n">
-        <v>4129958.700000436</v>
+        <v>4129958.7</v>
       </c>
     </row>
     <row r="19">
